--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fasl-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fasl-Fas.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Fasl</t>
+  </si>
+  <si>
+    <t>Fas</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>FAPs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fasl</t>
-  </si>
-  <si>
-    <t>Fas</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1020735</v>
+        <v>0.05948733333333334</v>
       </c>
       <c r="H2">
-        <v>0.204147</v>
+        <v>0.178462</v>
       </c>
       <c r="I2">
-        <v>0.2196813255754143</v>
+        <v>0.1584819436421222</v>
       </c>
       <c r="J2">
-        <v>0.1725354076763538</v>
+        <v>0.2003450935311241</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.793066</v>
+        <v>16.414246</v>
       </c>
       <c r="N2">
-        <v>9.586131999999999</v>
+        <v>32.828492</v>
       </c>
       <c r="O2">
-        <v>0.1530897350290489</v>
+        <v>0.2238644939003909</v>
       </c>
       <c r="P2">
-        <v>0.1123398347349798</v>
+        <v>0.1639757704305688</v>
       </c>
       <c r="Q2">
-        <v>0.4892450223509999</v>
+        <v>0.9764397232173333</v>
       </c>
       <c r="R2">
-        <v>1.956980089404</v>
+        <v>5.858638339304</v>
       </c>
       <c r="S2">
-        <v>0.03363095592317041</v>
+        <v>0.03547848010579396</v>
       </c>
       <c r="T2">
-        <v>0.01938259918429395</v>
+        <v>0.03285174106375043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1020735</v>
+        <v>0.05948733333333334</v>
       </c>
       <c r="H3">
-        <v>0.204147</v>
+        <v>0.178462</v>
       </c>
       <c r="I3">
-        <v>0.2196813255754143</v>
+        <v>0.1584819436421222</v>
       </c>
       <c r="J3">
-        <v>0.1725354076763538</v>
+        <v>0.2003450935311241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>25.566327</v>
       </c>
       <c r="O3">
-        <v>0.2721947514802995</v>
+        <v>0.1162281604801687</v>
       </c>
       <c r="P3">
-        <v>0.2996116629690111</v>
+        <v>0.1277018197151685</v>
       </c>
       <c r="Q3">
-        <v>0.8698814930115</v>
+        <v>0.506957538786</v>
       </c>
       <c r="R3">
-        <v>5.219288958069</v>
+        <v>4.562617849074001</v>
       </c>
       <c r="S3">
-        <v>0.05979610381986265</v>
+        <v>0.01842006477884562</v>
       </c>
       <c r="T3">
-        <v>0.05169362041494865</v>
+        <v>0.02558443301493019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1020735</v>
+        <v>0.05948733333333334</v>
       </c>
       <c r="H4">
-        <v>0.204147</v>
+        <v>0.178462</v>
       </c>
       <c r="I4">
-        <v>0.2196813255754143</v>
+        <v>0.1584819436421222</v>
       </c>
       <c r="J4">
-        <v>0.1725354076763538</v>
+        <v>0.2003450935311241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.389131666666667</v>
+        <v>8.334395000000001</v>
       </c>
       <c r="N4">
-        <v>10.167395</v>
+        <v>25.003185</v>
       </c>
       <c r="O4">
-        <v>0.108248304702785</v>
+        <v>0.1136680368163697</v>
       </c>
       <c r="P4">
-        <v>0.1191516530322408</v>
+        <v>0.1248889691184426</v>
       </c>
       <c r="Q4">
-        <v>0.3459405311775</v>
+        <v>0.4957909334966668</v>
       </c>
       <c r="R4">
-        <v>2.075643187065</v>
+        <v>4.462118401470001</v>
       </c>
       <c r="S4">
-        <v>0.02378013106839917</v>
+        <v>0.01801433140464257</v>
       </c>
       <c r="T4">
-        <v>0.02055787903122912</v>
+        <v>0.02502089219904006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,19 +726,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1020735</v>
+        <v>0.05948733333333334</v>
       </c>
       <c r="H5">
-        <v>0.204147</v>
+        <v>0.178462</v>
       </c>
       <c r="I5">
-        <v>0.2196813255754143</v>
+        <v>0.1584819436421222</v>
       </c>
       <c r="J5">
-        <v>0.1725354076763538</v>
+        <v>0.2003450935311241</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.801984</v>
+        <v>3.349162</v>
       </c>
       <c r="N5">
-        <v>7.603968</v>
+        <v>6.698324</v>
       </c>
       <c r="O5">
-        <v>0.1214347399231898</v>
+        <v>0.04567730105424404</v>
       </c>
       <c r="P5">
-        <v>0.08911086436636541</v>
+        <v>0.03345760866790863</v>
       </c>
       <c r="Q5">
-        <v>0.388081813824</v>
+        <v>0.1992327162813333</v>
       </c>
       <c r="R5">
-        <v>1.552327255296</v>
+        <v>1.195396297688</v>
       </c>
       <c r="S5">
-        <v>0.02667694463723201</v>
+        <v>0.007239027451402953</v>
       </c>
       <c r="T5">
-        <v>0.01537477931184312</v>
+        <v>0.006703067737899903</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1020735</v>
+        <v>0.05948733333333334</v>
       </c>
       <c r="H6">
-        <v>0.204147</v>
+        <v>0.178462</v>
       </c>
       <c r="I6">
-        <v>0.2196813255754143</v>
+        <v>0.1584819436421222</v>
       </c>
       <c r="J6">
-        <v>0.1725354076763538</v>
+        <v>0.2003450935311241</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.237454333333335</v>
+        <v>34.05638833333334</v>
       </c>
       <c r="N6">
-        <v>21.712363</v>
+        <v>102.169165</v>
       </c>
       <c r="O6">
-        <v>0.2311630939725934</v>
+        <v>0.4644755621620905</v>
       </c>
       <c r="P6">
-        <v>0.2544470774161978</v>
+        <v>0.5103270520352536</v>
       </c>
       <c r="Q6">
-        <v>0.7387522948935001</v>
+        <v>2.025923724914445</v>
       </c>
       <c r="R6">
-        <v>4.432513769361001</v>
+        <v>18.23331352423001</v>
       </c>
       <c r="S6">
-        <v>0.05078221490801337</v>
+        <v>0.07361098986571545</v>
       </c>
       <c r="T6">
-        <v>0.04390113023406044</v>
+        <v>0.1022415209714657</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1020735</v>
+        <v>0.05948733333333334</v>
       </c>
       <c r="H7">
-        <v>0.204147</v>
+        <v>0.178462</v>
       </c>
       <c r="I7">
-        <v>0.2196813255754143</v>
+        <v>0.1584819436421222</v>
       </c>
       <c r="J7">
-        <v>0.1725354076763538</v>
+        <v>0.2003450935311241</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.565121</v>
+        <v>2.645939</v>
       </c>
       <c r="N7">
-        <v>10.695363</v>
+        <v>7.937817</v>
       </c>
       <c r="O7">
-        <v>0.1138693748920833</v>
+        <v>0.03608644558673645</v>
       </c>
       <c r="P7">
-        <v>0.1253389074812049</v>
+        <v>0.03964878003265779</v>
       </c>
       <c r="Q7">
-        <v>0.3639043783935</v>
+        <v>0.1573998552726667</v>
       </c>
       <c r="R7">
-        <v>2.183426270361</v>
+        <v>1.416598697454</v>
       </c>
       <c r="S7">
-        <v>0.02501497521873665</v>
+        <v>0.005719050035721675</v>
       </c>
       <c r="T7">
-        <v>0.02162539949997848</v>
+        <v>0.007943438544037791</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.108639</v>
+        <v>0.2352985</v>
       </c>
       <c r="H8">
-        <v>0.217278</v>
+        <v>0.470597</v>
       </c>
       <c r="I8">
-        <v>0.2338115135582441</v>
+        <v>0.6268656119971068</v>
       </c>
       <c r="J8">
-        <v>0.1836331090297815</v>
+        <v>0.5283018232478982</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.793066</v>
+        <v>16.414246</v>
       </c>
       <c r="N8">
-        <v>9.586131999999999</v>
+        <v>32.828492</v>
       </c>
       <c r="O8">
-        <v>0.1530897350290489</v>
+        <v>0.2238644939003909</v>
       </c>
       <c r="P8">
-        <v>0.1123398347349798</v>
+        <v>0.1639757704305688</v>
       </c>
       <c r="Q8">
-        <v>0.5207138971740001</v>
+        <v>3.862247462431</v>
       </c>
       <c r="R8">
-        <v>2.082855588696</v>
+        <v>15.448989849724</v>
       </c>
       <c r="S8">
-        <v>0.03579414265737248</v>
+        <v>0.1403329529732911</v>
       </c>
       <c r="T8">
-        <v>0.02062931312027618</v>
+        <v>0.08662869848694828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.108639</v>
+        <v>0.2352985</v>
       </c>
       <c r="H9">
-        <v>0.217278</v>
+        <v>0.470597</v>
       </c>
       <c r="I9">
-        <v>0.2338115135582441</v>
+        <v>0.6268656119971068</v>
       </c>
       <c r="J9">
-        <v>0.1836331090297815</v>
+        <v>0.5283018232478982</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>25.566327</v>
       </c>
       <c r="O9">
-        <v>0.2721947514802995</v>
+        <v>0.1162281604801687</v>
       </c>
       <c r="P9">
-        <v>0.2996116629690111</v>
+        <v>0.1277018197151685</v>
       </c>
       <c r="Q9">
-        <v>0.9258333996510002</v>
+        <v>2.0052394645365</v>
       </c>
       <c r="R9">
-        <v>5.555000397906001</v>
+        <v>12.031436787219</v>
       </c>
       <c r="S9">
-        <v>0.06364226682621894</v>
+        <v>0.07285943695069887</v>
       </c>
       <c r="T9">
-        <v>0.05501862117258257</v>
+        <v>0.06746510418759792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.108639</v>
+        <v>0.2352985</v>
       </c>
       <c r="H10">
-        <v>0.217278</v>
+        <v>0.470597</v>
       </c>
       <c r="I10">
-        <v>0.2338115135582441</v>
+        <v>0.6268656119971068</v>
       </c>
       <c r="J10">
-        <v>0.1836331090297815</v>
+        <v>0.5283018232478982</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.389131666666667</v>
+        <v>8.334395000000001</v>
       </c>
       <c r="N10">
-        <v>10.167395</v>
+        <v>25.003185</v>
       </c>
       <c r="O10">
-        <v>0.108248304702785</v>
+        <v>0.1136680368163697</v>
       </c>
       <c r="P10">
-        <v>0.1191516530322408</v>
+        <v>0.1248889691184426</v>
       </c>
       <c r="Q10">
-        <v>0.3681918751350001</v>
+        <v>1.9610706419075</v>
       </c>
       <c r="R10">
-        <v>2.209151250810001</v>
+        <v>11.766423851445</v>
       </c>
       <c r="S10">
-        <v>0.02530969996267217</v>
+        <v>0.07125458346340323</v>
       </c>
       <c r="T10">
-        <v>0.02188018849234816</v>
+        <v>0.0659790700888237</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.108639</v>
+        <v>0.2352985</v>
       </c>
       <c r="H11">
-        <v>0.217278</v>
+        <v>0.470597</v>
       </c>
       <c r="I11">
-        <v>0.2338115135582441</v>
+        <v>0.6268656119971068</v>
       </c>
       <c r="J11">
-        <v>0.1836331090297815</v>
+        <v>0.5283018232478982</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.801984</v>
+        <v>3.349162</v>
       </c>
       <c r="N11">
-        <v>7.603968</v>
+        <v>6.698324</v>
       </c>
       <c r="O11">
-        <v>0.1214347399231898</v>
+        <v>0.04567730105424404</v>
       </c>
       <c r="P11">
-        <v>0.08911086436636541</v>
+        <v>0.03345760866790863</v>
       </c>
       <c r="Q11">
-        <v>0.4130437397760001</v>
+        <v>0.788052794857</v>
       </c>
       <c r="R11">
-        <v>1.652174959104</v>
+        <v>3.152211179428</v>
       </c>
       <c r="S11">
-        <v>0.02839284033999274</v>
+        <v>0.02863352927974478</v>
       </c>
       <c r="T11">
-        <v>0.01636370507192685</v>
+        <v>0.01767571566077081</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.108639</v>
+        <v>0.2352985</v>
       </c>
       <c r="H12">
-        <v>0.217278</v>
+        <v>0.470597</v>
       </c>
       <c r="I12">
-        <v>0.2338115135582441</v>
+        <v>0.6268656119971068</v>
       </c>
       <c r="J12">
-        <v>0.1836331090297815</v>
+        <v>0.5283018232478982</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.237454333333335</v>
+        <v>34.05638833333334</v>
       </c>
       <c r="N12">
-        <v>21.712363</v>
+        <v>102.169165</v>
       </c>
       <c r="O12">
-        <v>0.2311630939725934</v>
+        <v>0.4644755621620905</v>
       </c>
       <c r="P12">
-        <v>0.2544470774161978</v>
+        <v>0.5103270520352536</v>
       </c>
       <c r="Q12">
-        <v>0.7862698013190003</v>
+        <v>8.013417090250835</v>
       </c>
       <c r="R12">
-        <v>4.717618807914001</v>
+        <v>48.08050254150501</v>
       </c>
       <c r="S12">
-        <v>0.05404859288053868</v>
+        <v>0.2911637575324391</v>
       </c>
       <c r="T12">
-        <v>0.04672490790947791</v>
+        <v>0.2696067120429495</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.108639</v>
+        <v>0.2352985</v>
       </c>
       <c r="H13">
-        <v>0.217278</v>
+        <v>0.470597</v>
       </c>
       <c r="I13">
-        <v>0.2338115135582441</v>
+        <v>0.6268656119971068</v>
       </c>
       <c r="J13">
-        <v>0.1836331090297815</v>
+        <v>0.5283018232478982</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.565121</v>
+        <v>2.645939</v>
       </c>
       <c r="N13">
-        <v>10.695363</v>
+        <v>7.937817</v>
       </c>
       <c r="O13">
-        <v>0.1138693748920833</v>
+        <v>0.03608644558673645</v>
       </c>
       <c r="P13">
-        <v>0.1253389074812049</v>
+        <v>0.03964878003265779</v>
       </c>
       <c r="Q13">
-        <v>0.387311180319</v>
+        <v>0.6225854777915</v>
       </c>
       <c r="R13">
-        <v>2.323867081914</v>
+        <v>3.735512866749001</v>
       </c>
       <c r="S13">
-        <v>0.02662397089144911</v>
+        <v>0.02262135179752984</v>
       </c>
       <c r="T13">
-        <v>0.0230163732631698</v>
+        <v>0.02094652278080797</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.253931</v>
+        <v>0.08057133333333334</v>
       </c>
       <c r="H14">
-        <v>0.7617929999999999</v>
+        <v>0.241714</v>
       </c>
       <c r="I14">
-        <v>0.5465071608663415</v>
+        <v>0.2146524443607711</v>
       </c>
       <c r="J14">
-        <v>0.6438314832938646</v>
+        <v>0.2713530832209777</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.793066</v>
+        <v>16.414246</v>
       </c>
       <c r="N14">
-        <v>9.586131999999999</v>
+        <v>32.828492</v>
       </c>
       <c r="O14">
-        <v>0.1530897350290489</v>
+        <v>0.2238644939003909</v>
       </c>
       <c r="P14">
-        <v>0.1123398347349798</v>
+        <v>0.1639757704305688</v>
       </c>
       <c r="Q14">
-        <v>1.217108042446</v>
+        <v>1.322517685881333</v>
       </c>
       <c r="R14">
-        <v>7.302648254675999</v>
+        <v>7.935106115288</v>
       </c>
       <c r="S14">
-        <v>0.08366463644850605</v>
+        <v>0.04805306082130583</v>
       </c>
       <c r="T14">
-        <v>0.07232792243040968</v>
+        <v>0.04449533087987007</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.253931</v>
+        <v>0.08057133333333334</v>
       </c>
       <c r="H15">
-        <v>0.7617929999999999</v>
+        <v>0.241714</v>
       </c>
       <c r="I15">
-        <v>0.5465071608663415</v>
+        <v>0.2146524443607711</v>
       </c>
       <c r="J15">
-        <v>0.6438314832938646</v>
+        <v>0.2713530832209777</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>25.566327</v>
       </c>
       <c r="O15">
-        <v>0.2721947514802995</v>
+        <v>0.1162281604801687</v>
       </c>
       <c r="P15">
-        <v>0.2996116629690111</v>
+        <v>0.1277018197151685</v>
       </c>
       <c r="Q15">
-        <v>2.164027660479</v>
+        <v>0.6866376849420001</v>
       </c>
       <c r="R15">
-        <v>19.476248944311</v>
+        <v>6.179739164478001</v>
       </c>
       <c r="S15">
-        <v>0.1487563808342179</v>
+        <v>0.02494865875062417</v>
       </c>
       <c r="T15">
-        <v>0.1928994213814799</v>
+        <v>0.03465228251264042</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.253931</v>
+        <v>0.08057133333333334</v>
       </c>
       <c r="H16">
-        <v>0.7617929999999999</v>
+        <v>0.241714</v>
       </c>
       <c r="I16">
-        <v>0.5465071608663415</v>
+        <v>0.2146524443607711</v>
       </c>
       <c r="J16">
-        <v>0.6438314832938646</v>
+        <v>0.2713530832209777</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.389131666666667</v>
+        <v>8.334395000000001</v>
       </c>
       <c r="N16">
-        <v>10.167395</v>
+        <v>25.003185</v>
       </c>
       <c r="O16">
-        <v>0.108248304702785</v>
+        <v>0.1136680368163697</v>
       </c>
       <c r="P16">
-        <v>0.1191516530322408</v>
+        <v>0.1248889691184426</v>
       </c>
       <c r="Q16">
-        <v>0.8606055932483333</v>
+        <v>0.6715133176766668</v>
       </c>
       <c r="R16">
-        <v>7.745450339235</v>
+        <v>6.043619859090001</v>
       </c>
       <c r="S16">
-        <v>0.0591584736717137</v>
+        <v>0.02439912194832387</v>
       </c>
       <c r="T16">
-        <v>0.07671358550866349</v>
+        <v>0.03388900683057888</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.253931</v>
+        <v>0.08057133333333334</v>
       </c>
       <c r="H17">
-        <v>0.7617929999999999</v>
+        <v>0.241714</v>
       </c>
       <c r="I17">
-        <v>0.5465071608663415</v>
+        <v>0.2146524443607711</v>
       </c>
       <c r="J17">
-        <v>0.6438314832938646</v>
+        <v>0.2713530832209777</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.801984</v>
+        <v>3.349162</v>
       </c>
       <c r="N17">
-        <v>7.603968</v>
+        <v>6.698324</v>
       </c>
       <c r="O17">
-        <v>0.1214347399231898</v>
+        <v>0.04567730105424404</v>
       </c>
       <c r="P17">
-        <v>0.08911086436636541</v>
+        <v>0.03345760866790863</v>
       </c>
       <c r="Q17">
-        <v>0.9654415991039998</v>
+        <v>0.2698464478893333</v>
       </c>
       <c r="R17">
-        <v>5.792649594624</v>
+        <v>1.619078687336</v>
       </c>
       <c r="S17">
-        <v>0.06636495494596503</v>
+        <v>0.009804744323096307</v>
       </c>
       <c r="T17">
-        <v>0.05737237998259543</v>
+        <v>0.009078825269237917</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.253931</v>
+        <v>0.08057133333333334</v>
       </c>
       <c r="H18">
-        <v>0.7617929999999999</v>
+        <v>0.241714</v>
       </c>
       <c r="I18">
-        <v>0.5465071608663415</v>
+        <v>0.2146524443607711</v>
       </c>
       <c r="J18">
-        <v>0.6438314832938646</v>
+        <v>0.2713530832209777</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.237454333333335</v>
+        <v>34.05638833333334</v>
       </c>
       <c r="N18">
-        <v>21.712363</v>
+        <v>102.169165</v>
       </c>
       <c r="O18">
-        <v>0.2311630939725934</v>
+        <v>0.4644755621620905</v>
       </c>
       <c r="P18">
-        <v>0.2544470774161978</v>
+        <v>0.5103270520352536</v>
       </c>
       <c r="Q18">
-        <v>1.837814016317667</v>
+        <v>2.743968616534445</v>
       </c>
       <c r="R18">
-        <v>16.540326146859</v>
+        <v>24.69571754881001</v>
       </c>
       <c r="S18">
-        <v>0.1263322861840413</v>
+        <v>0.099700814763936</v>
       </c>
       <c r="T18">
-        <v>0.1638210392726595</v>
+        <v>0.1384788190208384</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.253931</v>
+        <v>0.08057133333333334</v>
       </c>
       <c r="H19">
-        <v>0.7617929999999999</v>
+        <v>0.241714</v>
       </c>
       <c r="I19">
-        <v>0.5465071608663415</v>
+        <v>0.2146524443607711</v>
       </c>
       <c r="J19">
-        <v>0.6438314832938646</v>
+        <v>0.2713530832209777</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.565121</v>
+        <v>2.645939</v>
       </c>
       <c r="N19">
-        <v>10.695363</v>
+        <v>7.937817</v>
       </c>
       <c r="O19">
-        <v>0.1138693748920833</v>
+        <v>0.03608644558673645</v>
       </c>
       <c r="P19">
-        <v>0.1253389074812049</v>
+        <v>0.03964878003265779</v>
       </c>
       <c r="Q19">
-        <v>0.9052947406509999</v>
+        <v>0.2131868331486667</v>
       </c>
       <c r="R19">
-        <v>8.147652665858999</v>
+        <v>1.918681498338</v>
       </c>
       <c r="S19">
-        <v>0.0622304287818975</v>
+        <v>0.007746043753484938</v>
       </c>
       <c r="T19">
-        <v>0.08069713471805665</v>
+        <v>0.01075881870781203</v>
       </c>
     </row>
   </sheetData>
